--- a/CoilDesign/New Microsoft Excel Worksheet.xlsx
+++ b/CoilDesign/New Microsoft Excel Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416285A2-5DA5-4D91-A933-C315980AC758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C70F54-F218-4C9D-B9E3-DAB69E0F2E18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>x= 3</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>y =3</t>
+  </si>
+  <si>
+    <t>y=0</t>
   </si>
 </sst>
 </file>
@@ -231,6 +234,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8457</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6433562B-676D-485F-B5B2-2ECB72493F33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9715500"/>
+          <a:ext cx="8542857" cy="5114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>141867</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>152024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A2AAFF-0BD3-457D-B0F5-816A017143A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15049500"/>
+          <a:ext cx="8066667" cy="3009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -497,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +614,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="56" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O56" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
